--- a/dd.xlsx
+++ b/dd.xlsx
@@ -1,40 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>ror</t>
+  </si>
+  <si>
+    <t>hpr</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +90,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,341 +409,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ror</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>hpr</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>44647.375</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>53888000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>56201000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>53674000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>55949000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5341.02371604</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>292027317612.8693</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1263500</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
         <v>44648.375</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>55936000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>57678000</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>55827000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>56914000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>6374.43514602</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>361568618614.5161</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>925500</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>57199500</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.9950086976284758</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.9950086976284758</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0.4991302371524231</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
         <v>44649.375</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>56900000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>57540000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>56390000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>56985000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>6629.17847063</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>378907479327.8326</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>575000</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>57825500</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.9950086976284758</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.4991302371524231</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
         <v>44650.375</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>56985000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>57100000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>56015000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>56620000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>4136.11449268</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>234529415255.2108</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>542500</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>57560000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.9950086976284758</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.4991302371524231</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
         <v>44651.375</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>56594000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>57227000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>55230000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>55352000</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5141.56326564</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>290425399182.101</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>998500</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>57136500</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.9687677754150149</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.9639323625201297</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>3.60676374798703</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
         <v>44652.375</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>55331000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>56790000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>54246000</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>56369000</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>6752.64535556</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>373769566768.1517</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1272000</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>56329500</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>1.000701231148865</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.9646083019181281</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>3.539169808187193</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
         <v>44653.375</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>56326000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>57350000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>56212000</v>
       </c>
-      <c r="E8" t="n">
-        <v>56710000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1504.12227545</v>
-      </c>
-      <c r="G8" t="n">
-        <v>85384106026.25111</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="E8">
+        <v>56617000</v>
+      </c>
+      <c r="F8">
+        <v>1769.91834297</v>
+      </c>
+      <c r="G8">
+        <v>100432282677.4625</v>
+      </c>
+      <c r="H8">
         <v>569000</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>57598000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.9646083019181281</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>3.539169808187193</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>